--- a/results/12member.xlsx
+++ b/results/12member.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tease\OneDrive\デスクトップ\研究室\卒論\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA144E33-40C0-4A11-849A-B1064D133683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA28BE2F-3372-4C2E-BE2E-E7FCED8F0551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="1176" windowWidth="20616" windowHeight="10368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4344" yWindow="1248" windowWidth="20616" windowHeight="10368" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="12member(自動回復済み)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="12member(自動回復済み)" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'12member(自動回復済み)'!$R$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'12member(自動回復済み)'!$R$38:$R$49</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'12member(自動回復済み)'!$R$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'12member(自動回復済み)'!$R$2:$R$13</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'12member(自動回復済み)'!$Y$37</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'12member(自動回復済み)'!$Y$38:$Y$49</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'12member(自動回復済み)'!$X$37</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'12member(自動回復済み)'!$X$38:$X$49</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'12member(自動回復済み)'!$R$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'12member(自動回復済み)'!$R$2:$R$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'12member(自動回復済み)'!$W$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'12member(自動回復済み)'!$W$2:$W$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'12member(自動回復済み)'!$W$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'12member(自動回復済み)'!$W$2:$W$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'12member(自動回復済み)'!$R$37</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'12member(自動回復済み)'!$R$38:$R$49</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'12member(自動回復済み)'!$X$37</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'12member(自動回復済み)'!$X$38:$X$49</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'12member(自動回復済み)'!$S$37</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'12member(自動回復済み)'!$S$38:$S$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -121,9 +122,6 @@
     <t>min</t>
   </si>
   <si>
-    <t>進捗あり</t>
-  </si>
-  <si>
     <t>ave/correct</t>
   </si>
   <si>
@@ -165,6 +163,84 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>正答率</t>
+    <rPh sb="0" eb="3">
+      <t>セイトウリツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>集中力</t>
+    <rPh sb="0" eb="3">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>t-検定: 一対の標本による平均の検定ツール</t>
+  </si>
+  <si>
+    <t>変数 1</t>
+  </si>
+  <si>
+    <t>変数 2</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>ピアソン相関</t>
+  </si>
+  <si>
+    <t>仮説平均との差異</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 片側</t>
+  </si>
+  <si>
+    <t>t 境界値 片側</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 両側</t>
+  </si>
+  <si>
+    <t>t 境界値 両側</t>
+  </si>
+  <si>
+    <t>一問当たり平均回答時間</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -515,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -627,6 +703,26 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,9 +855,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2407,12 +2512,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2458,7 +2563,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DD78013-E7CF-4A84-8C4B-D3143C86E446}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>進捗表示なし</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2471,7 +2576,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7744D067-8537-42F5-957A-FFBD60973754}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>進捗表示あり</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2535,12 +2640,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2586,7 +2691,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{945B4B01-47D2-43EB-87BB-8A197CCE95A0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>進捗表示なし</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2599,7 +2704,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1D961CFE-8562-4813-9FFE-70FC11B1F783}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>進捗表示あり</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5593,8 +5698,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10812539" y="3830150"/>
-              <a:ext cx="4607847" cy="2733982"/>
+              <a:off x="10791564" y="3817040"/>
+              <a:ext cx="4599981" cy="2724150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5626,15 +5731,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>230854</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>386532</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>53258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>92383</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>543029</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>53257</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5671,8 +5776,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16994854" y="8054258"/>
-              <a:ext cx="4555449" cy="2743199"/>
+              <a:off x="11786052" y="11940458"/>
+              <a:ext cx="4850417" cy="2743199"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5705,15 +5810,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>516193</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>45884</xdr:rowOff>
+      <xdr:colOff>671870</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>385097</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>36052</xdr:rowOff>
+      <xdr:colOff>540774</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>199923</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5749,8 +5854,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9233473" y="8504084"/>
-              <a:ext cx="4562824" cy="2733368"/>
+              <a:off x="9389150" y="12096956"/>
+              <a:ext cx="4562824" cy="2733367"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6151,20 +6256,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C00151-7610-4E92-B555-968B4AA5E7B1}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0153673760348139</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0106584646001637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.9739811452789591E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.7215866723207928E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.43174973360907182</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.6101534305948769E-2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.49009303282976135</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.0150483733330233</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.98018606565952271</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.570581835636315</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40D0802-5B44-4D41-867E-D05869D63529}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9389.614695416667</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8168.9222222500002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6376980.004047621</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4317754.8080581427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.93655688323073549</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.5441773756263171</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.1905055980103091E-4</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.7958848187040437</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.3810111960206182E-4</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.2009851600916384</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR722"/>
+  <dimension ref="A1:BH722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP10" zoomScale="93" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView topLeftCell="I1" zoomScale="44" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="BI47" sqref="BI47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="27" max="27" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6214,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
         <v>11</v>
@@ -6226,10 +6611,10 @@
         <v>12</v>
       </c>
       <c r="W1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB1" t="s">
         <v>11</v>
@@ -6259,7 +6644,7 @@
         <v>6</v>
       </c>
       <c r="AL1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM1">
         <v>1</v>
@@ -6280,7 +6665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>35</v>
       </c>
@@ -6348,7 +6733,7 @@
         <v>1.0506413530000001</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB2">
         <v>50</v>
@@ -6384,11 +6769,11 @@
         <v>9003.2000000000007</v>
       </c>
       <c r="AM2">
-        <f>AE2/AE$14</f>
+        <f t="shared" ref="AM2:AR2" si="1">AE2/AE$14</f>
         <v>1.0146576469637083</v>
       </c>
       <c r="AN2">
-        <f t="shared" ref="AN2:AR2" si="1">AF2/AF$14</f>
+        <f t="shared" si="1"/>
         <v>1.2477910411362287</v>
       </c>
       <c r="AO2">
@@ -6407,8 +6792,12 @@
         <f t="shared" si="1"/>
         <v>0.94749083102245291</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS2">
+        <f>AVERAGE(AM2:AR2)</f>
+        <v>1.0259474438364633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>35</v>
       </c>
@@ -6532,8 +6921,12 @@
         <f t="shared" ref="AR3:AR13" si="8">AJ3/AJ$14</f>
         <v>0.87312871297548456</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS13" si="9">AVERAGE(AM3:AR3)</f>
+        <v>0.76865254743285394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>35</v>
       </c>
@@ -6657,8 +7050,12 @@
         <f t="shared" si="8"/>
         <v>1.4248775277174113</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS4">
+        <f t="shared" si="9"/>
+        <v>1.1640123566497349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>35</v>
       </c>
@@ -6782,8 +7179,12 @@
         <f t="shared" si="8"/>
         <v>0.7879690385860042</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS5">
+        <f t="shared" si="9"/>
+        <v>0.75611824249053894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>35</v>
       </c>
@@ -6907,8 +7308,12 @@
         <f t="shared" si="8"/>
         <v>1.049194129749583</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS6">
+        <f t="shared" si="9"/>
+        <v>0.9912444405456341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>35</v>
       </c>
@@ -7032,8 +7437,12 @@
         <f t="shared" si="8"/>
         <v>0.48277495093215744</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS7">
+        <f t="shared" si="9"/>
+        <v>0.53435836906840817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>35</v>
       </c>
@@ -7157,8 +7566,12 @@
         <f t="shared" si="8"/>
         <v>0.84806070205164097</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS8">
+        <f t="shared" si="9"/>
+        <v>0.97179192280545934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>35</v>
       </c>
@@ -7282,8 +7695,12 @@
         <f t="shared" si="8"/>
         <v>1.5150886904542658</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS9">
+        <f t="shared" si="9"/>
+        <v>1.5673047946815906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>35</v>
       </c>
@@ -7407,8 +7824,12 @@
         <f t="shared" si="8"/>
         <v>1.3749730324189791</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS10">
+        <f t="shared" si="9"/>
+        <v>1.3462854848539667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>35</v>
       </c>
@@ -7532,8 +7953,12 @@
         <f t="shared" si="8"/>
         <v>0.9018590529511743</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS11">
+        <f t="shared" si="9"/>
+        <v>0.96270677020566542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>35</v>
       </c>
@@ -7657,8 +8082,12 @@
         <f t="shared" si="8"/>
         <v>0.95498387207105762</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS12">
+        <f t="shared" si="9"/>
+        <v>1.0467074941834313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>35</v>
       </c>
@@ -7782,8 +8211,12 @@
         <f t="shared" si="8"/>
         <v>0.8395994590697895</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS13">
+        <f t="shared" si="9"/>
+        <v>0.86487013324625328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>35</v>
       </c>
@@ -7839,34 +8272,34 @@
         <v>1.32959048</v>
       </c>
       <c r="AD14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE14">
-        <f>AVERAGE( AE2:AE13)</f>
+        <f t="shared" ref="AE14:AJ14" si="10">AVERAGE( AE2:AE13)</f>
         <v>11028.941666666668</v>
       </c>
       <c r="AF14">
-        <f t="shared" ref="AF14:AJ14" si="9">AVERAGE( AF2:AF13)</f>
+        <f t="shared" si="10"/>
         <v>9157.783333333331</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8691.9833333333354</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8365.9666666666672</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9567.5333333333347</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9502.15</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>35</v>
       </c>
@@ -7919,7 +8352,7 @@
         <v>11118.633330000001</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>35</v>
       </c>
@@ -7972,7 +8405,7 @@
         <v>4934.6666670000004</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>35</v>
       </c>
@@ -8040,7 +8473,7 @@
         <v>6</v>
       </c>
       <c r="AL17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -8061,7 +8494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>35</v>
       </c>
@@ -8115,51 +8548,55 @@
         <v>9598.2000000000007</v>
       </c>
       <c r="AF18">
-        <f t="shared" ref="AF18:AJ29" si="10">AVERAGEIFS($J$2:$J$722,$A$2:$A$722,"="&amp;$AD18,$I$2:$I$722,"&gt;="&amp;AF$1*5-4,$I$2:$I$722,"&lt;="&amp;AF$1*5)</f>
+        <f t="shared" ref="AF18:AJ29" si="11">AVERAGEIFS($J$2:$J$722,$A$2:$A$722,"="&amp;$AD18,$I$2:$I$722,"&gt;="&amp;AF$1*5-4,$I$2:$I$722,"&lt;="&amp;AF$1*5)</f>
         <v>8842</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8416.7999999999993</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8835.2000000000007</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9019</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10172.799999999999</v>
       </c>
       <c r="AM18">
-        <f>AE18/AE$30</f>
+        <f t="shared" ref="AM18:AR18" si="12">AE18/AE$30</f>
         <v>1.0190055401122886</v>
       </c>
       <c r="AN18">
-        <f t="shared" ref="AN18:AR18" si="11">AF18/AF$30</f>
+        <f t="shared" si="12"/>
         <v>1.1451167629708454</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2417364363958248</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0818236918310999</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1588796254853293</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1123710382005763</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS18">
+        <f>AVERAGE(AM18:AR18)</f>
+        <v>1.1264888491659941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>35</v>
       </c>
@@ -8209,55 +8646,59 @@
         <v>39</v>
       </c>
       <c r="AE19">
-        <f t="shared" ref="AE19:AE29" si="12">AVERAGEIFS($J$2:$J$722,$A$2:$A$722,"="&amp;$AD19,$I$2:$I$722,"&gt;="&amp;AE$1*5-4,$I$2:$I$722,"&lt;="&amp;AE$1*5)</f>
+        <f t="shared" ref="AE19:AE29" si="13">AVERAGEIFS($J$2:$J$722,$A$2:$A$722,"="&amp;$AD19,$I$2:$I$722,"&gt;="&amp;AE$1*5-4,$I$2:$I$722,"&lt;="&amp;AE$1*5)</f>
         <v>8082.2</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8402.4</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4795.6000000000004</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5291.2</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6911</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7808.8</v>
       </c>
       <c r="AM19">
-        <f t="shared" ref="AM19:AM29" si="13">AE19/AE$30</f>
+        <f t="shared" ref="AM19:AM29" si="14">AE19/AE$30</f>
         <v>0.8580574041273924</v>
       </c>
       <c r="AN19">
-        <f t="shared" ref="AN19:AN29" si="14">AF19/AF$30</f>
+        <f t="shared" ref="AN19:AN29" si="15">AF19/AF$30</f>
         <v>1.0881846968091191</v>
       </c>
       <c r="AO19">
-        <f t="shared" ref="AO19:AO29" si="15">AG19/AG$30</f>
+        <f t="shared" ref="AO19:AO29" si="16">AG19/AG$30</f>
         <v>0.7074982480728802</v>
       </c>
       <c r="AP19">
-        <f t="shared" ref="AP19:AP29" si="16">AH19/AH$30</f>
+        <f t="shared" ref="AP19:AP29" si="17">AH19/AH$30</f>
         <v>0.64787956336208741</v>
       </c>
       <c r="AQ19">
-        <f t="shared" ref="AQ19:AQ29" si="17">AI19/AI$30</f>
+        <f t="shared" ref="AQ19:AQ29" si="18">AI19/AI$30</f>
         <v>0.88801608734107007</v>
       </c>
       <c r="AR19">
-        <f t="shared" ref="AR19:AR29" si="18">AJ19/AJ$30</f>
+        <f t="shared" ref="AR19:AR29" si="19">AJ19/AJ$30</f>
         <v>0.85387336457029139</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS19">
+        <f t="shared" ref="AS19:AS29" si="20">AVERAGE(AM19:AR19)</f>
+        <v>0.8405848940471401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>35</v>
       </c>
@@ -8307,55 +8748,59 @@
         <v>41</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10645.2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9025.7999999999993</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11004</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12514.6</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10419.200000000001</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11270.4</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1301616736058151</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.168920479441558</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6234278759266771</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5323468369464734</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3387957194652116</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2323909394597137</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS20">
+        <f t="shared" si="20"/>
+        <v>1.337673920807575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>35</v>
       </c>
@@ -8405,55 +8850,59 @@
         <v>43</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8615.6</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5205.8</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6997</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7055</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5863.4</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6213.6</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.91468651740862172</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.67419688358670293</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0322723416811124</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86384758079821722</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75340667436197795</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.67944210865868804</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS21">
+        <f t="shared" si="20"/>
+        <v>0.81964201774921996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>35</v>
       </c>
@@ -8503,55 +8952,59 @@
         <v>46</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9296.6</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7113.8</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6437.6</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7275</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8085.8</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8562.7999999999993</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98698577902188966</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92129966392467766</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94974366540036148</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89078542173026654</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0389698276692845</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.93632143813934154</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS22">
+        <f t="shared" si="20"/>
+        <v>0.95401763264763684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>35</v>
       </c>
@@ -8601,55 +9054,59 @@
         <v>50</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6433.2</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4140.3999999999996</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4454.6000000000004</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4897</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4306.3999999999996</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6176.4</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.68298914803300348</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.53621821368519429</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.65719027772655192</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.59961185020111551</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.55334285610267453</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.67537437876907436</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS23">
+        <f t="shared" si="20"/>
+        <v>0.61745445408626898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>35</v>
       </c>
@@ -8699,55 +9156,59 @@
         <v>52</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8399.7999999999993</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6146</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4878.8</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6333.2</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7064</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8300.7999999999993</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89177582628359486</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.79596105238846593</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71977280271456501</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77546697359479366</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.90767553769025022</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.90767237278776181</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS24">
+        <f t="shared" si="20"/>
+        <v>0.8330540942432384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>35</v>
       </c>
@@ -8797,55 +9258,59 @@
         <v>54</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14805</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14755.6</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9288.4</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10671.6</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8778</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14413.2</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5717923174514421</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9109799714648956</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3703241987238592</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3066811967748058</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1279127788568821</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5760485065854579</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS25">
+        <f t="shared" si="20"/>
+        <v>1.477289828309557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>35</v>
       </c>
@@ -8895,55 +9360,59 @@
         <v>56</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9823.6</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9797.4</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7545.8</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10230.200000000001</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13165.8</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12321.8</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0429354278767975</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2688494654524496</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1132371924906872</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2526340922865942</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6917149765178787</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3473589826301373</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS26">
+        <f t="shared" si="20"/>
+        <v>1.2861216895424239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>35</v>
       </c>
@@ -8993,55 +9462,59 @@
         <v>58</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9889.6</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6666.8</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5910.2</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10440.6</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6817</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8941.6</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0499424047732375</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.863409232681976</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87193597167410464</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.278396463796154</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.87593773222458038</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.97774230056368683</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS27">
+        <f t="shared" si="20"/>
+        <v>0.98622735095228986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>35</v>
       </c>
@@ -9091,55 +9564,59 @@
         <v>62</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9003.7999999999993</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6830</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5970.2</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7840.4</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7446.4</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8673.2000000000007</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95590028151768269</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88454506798132482</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88078781396378114</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96001567292563317</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9568113142492467</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.9483934107149693</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS28">
+        <f t="shared" si="20"/>
+        <v>0.93107559355877301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>35</v>
       </c>
@@ -9189,55 +9666,59 @@
         <v>64</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8437.4</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5731.8</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5640</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6619.4</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5514.2</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6886.4</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89576767978823346</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.74231850961279033</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.83207317522959467</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.8105106557527596</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.70853687003561405</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.75301115892030202</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="AS29">
+        <f t="shared" si="20"/>
+        <v>0.7903696748898823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>35</v>
       </c>
@@ -9278,31 +9759,31 @@
         <v>1</v>
       </c>
       <c r="AE30">
-        <f>AVERAGE(AE18:AE29)</f>
+        <f t="shared" ref="AE30:AJ30" si="21">AVERAGE(AE18:AE29)</f>
         <v>9419.1833333333343</v>
       </c>
       <c r="AF30">
-        <f t="shared" ref="AF30:AJ30" si="19">AVERAGE(AF18:AF29)</f>
+        <f t="shared" si="21"/>
         <v>7721.4833333333336</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6778.25</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8166.95</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7782.5166666666664</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9145.15</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>35</v>
       </c>
@@ -9343,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>36</v>
       </c>
@@ -9384,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>36</v>
       </c>
@@ -9425,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>36</v>
       </c>
@@ -9466,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>36</v>
       </c>
@@ -9507,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>36</v>
       </c>
@@ -9548,10 +10029,10 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9601,10 +10082,10 @@
         <v>12</v>
       </c>
       <c r="R37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U37" t="s">
         <v>11</v>
@@ -9616,13 +10097,97 @@
         <v>12</v>
       </c>
       <c r="X37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>2</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>4</v>
+      </c>
+      <c r="AI37">
+        <v>5</v>
+      </c>
+      <c r="AJ37">
+        <v>6</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>4</v>
+      </c>
+      <c r="AQ37">
+        <v>5</v>
+      </c>
+      <c r="AR37">
+        <v>6</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB37">
+        <v>1</v>
+      </c>
+      <c r="BC37">
+        <v>2</v>
+      </c>
+      <c r="BD37">
+        <v>3</v>
+      </c>
+      <c r="BE37">
+        <v>4</v>
+      </c>
+      <c r="BF37">
+        <v>5</v>
+      </c>
+      <c r="BG37">
+        <v>6</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9688,14 +10253,123 @@
         <v>36</v>
       </c>
       <c r="X38">
-        <v>0.86666666699999995</v>
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD38)</f>
+        <v>0.8</v>
       </c>
       <c r="Y38">
         <f>X38*100</f>
-        <v>86.666666699999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB38">
+        <v>50</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD38">
+        <v>35</v>
+      </c>
+      <c r="AE38">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD38,$I$2:$I$722,"&gt;="&amp;AE$37*5-4,$I$2:$I$722,"&lt;="&amp;AE$37*5)</f>
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD38,$I$2:$I$722,"&gt;="&amp;AF$37*5-4,$I$2:$I$722,"&lt;="&amp;AF$37*5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" ref="AG38:AJ49" si="22">AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD38,$I$2:$I$722,"&gt;="&amp;AG$37*5-4,$I$2:$I$722,"&lt;="&amp;AG$37*5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="22"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="22"/>
+        <v>0.6</v>
+      </c>
+      <c r="AK38">
+        <f>AVERAGE(AE38:AJ38)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AM38">
+        <f>AE38/AE$50</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" ref="AN38:AR38" si="23">AF38/AF$50</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="23"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="23"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="23"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="23"/>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="AS38">
+        <f>AVERAGE(AM38:AR38)</f>
+        <v>0.87670873308479047</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY38">
+        <v>50</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA38">
+        <v>35</v>
+      </c>
+      <c r="BB38">
+        <f>(AE38/$AK38)*($AS2/AM2)</f>
+        <v>1.2639083819386507</v>
+      </c>
+      <c r="BC38">
+        <f>(AF38/$AK38)*($AS2/AN2)</f>
+        <v>0.82221093918276889</v>
+      </c>
+      <c r="BD38">
+        <f t="shared" ref="BD38:BD49" si="24">(AG38/$AK38)*($AS2/AO2)</f>
+        <v>1.0336514839927762</v>
+      </c>
+      <c r="BE38">
+        <f t="shared" ref="BE38:BE49" si="25">(AH38/$AK38)*($AS2/AP2)</f>
+        <v>0.72691648083312188</v>
+      </c>
+      <c r="BF38">
+        <f t="shared" ref="BF38:BF49" si="26">(AI38/$AK38)*($AS2/AQ2)</f>
+        <v>1.433413509537824</v>
+      </c>
+      <c r="BG38">
+        <f t="shared" ref="BG38:BG49" si="27">(AJ38/$AK38)*($AS2/AR2)</f>
+        <v>0.81210346072374118</v>
+      </c>
+      <c r="BH38">
+        <f>AVERAGE(BB38:BG38)</f>
+        <v>1.0153673760348139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>36</v>
       </c>
@@ -9748,7 +10422,7 @@
         <v>0.96666666700000003</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39:S52" si="20">R39*100</f>
+        <f t="shared" ref="S39:S52" si="28">R39*100</f>
         <v>96.666666700000007</v>
       </c>
       <c r="U39">
@@ -9764,11 +10438,109 @@
         <v>0.86666666699999995</v>
       </c>
       <c r="Y39">
-        <f t="shared" ref="Y39:Y52" si="21">X39*100</f>
+        <f t="shared" ref="Y39:Y52" si="29">X39*100</f>
         <v>86.666666699999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB39">
+        <v>51</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD39">
+        <v>37</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" ref="AE39:AF49" si="30">AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD39,$I$2:$I$722,"&gt;="&amp;AE$37*5-4,$I$2:$I$722,"&lt;="&amp;AE$37*5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <f>AVERAGE(AE39:AJ39)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" ref="AM39:AM49" si="31">AE39/AE$50</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" ref="AN39:AN49" si="32">AF39/AF$50</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" ref="AO39:AO49" si="33">AG39/AG$50</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" ref="AP39:AP49" si="34">AH39/AH$50</f>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" ref="AQ39:AQ49" si="35">AI39/AI$50</f>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" ref="AR39:AR49" si="36">AJ39/AJ$50</f>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="AY39">
+        <v>51</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA39">
+        <v>37</v>
+      </c>
+      <c r="BB39">
+        <f t="shared" ref="BB38:BB49" si="37">(AE39/$AK39)*($AS3/AM3)</f>
+        <v>0.86254877934527896</v>
+      </c>
+      <c r="BC39">
+        <f t="shared" ref="BC38:BC49" si="38">(AF39/$AK39)*($AS3/AN3)</f>
+        <v>0.89915330040076713</v>
+      </c>
+      <c r="BD39">
+        <f t="shared" si="24"/>
+        <v>1.2332711915713297</v>
+      </c>
+      <c r="BE39">
+        <f t="shared" si="25"/>
+        <v>0.996205779601541</v>
+      </c>
+      <c r="BF39">
+        <f t="shared" si="26"/>
+        <v>1.1797442592696537</v>
+      </c>
+      <c r="BG39">
+        <f t="shared" si="27"/>
+        <v>0.91069941449913761</v>
+      </c>
+      <c r="BH39">
+        <f t="shared" ref="BH39:BH49" si="39">AVERAGE(BB39:BG39)</f>
+        <v>1.0136037874479513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>36</v>
       </c>
@@ -9821,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="U40">
@@ -9837,11 +10609,109 @@
         <v>0.9</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB40">
+        <v>52</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD40">
+        <v>40</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" ref="AK40:AK49" si="40">AVERAGE(AE40:AJ40)</f>
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="31"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="32"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="33"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="36"/>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="AY40">
+        <v>52</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA40">
+        <v>40</v>
+      </c>
+      <c r="BB40">
+        <f t="shared" si="37"/>
+        <v>1.0477119757099471</v>
+      </c>
+      <c r="BC40">
+        <f t="shared" si="38"/>
+        <v>1.0683918615592234</v>
+      </c>
+      <c r="BD40">
+        <f t="shared" si="24"/>
+        <v>0.95217075455905009</v>
+      </c>
+      <c r="BE40">
+        <f t="shared" si="25"/>
+        <v>1.0066040163858296</v>
+      </c>
+      <c r="BF40">
+        <f t="shared" si="26"/>
+        <v>1.1879682357282688</v>
+      </c>
+      <c r="BG40">
+        <f t="shared" si="27"/>
+        <v>0.81692098724753526</v>
+      </c>
+      <c r="BH40">
+        <f t="shared" si="39"/>
+        <v>1.0132946385316421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>36</v>
       </c>
@@ -9894,7 +10764,7 @@
         <v>0.93548387099999997</v>
       </c>
       <c r="S41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>93.548387099999999</v>
       </c>
       <c r="U41">
@@ -9910,11 +10780,109 @@
         <v>0.96666666700000003</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>96.666666700000007</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB41">
+        <v>54</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD41">
+        <v>42</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="40"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="31"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="32"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="33"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="35"/>
+        <v>0.85714285714285732</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="36"/>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="AY41">
+        <v>54</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA41">
+        <v>42</v>
+      </c>
+      <c r="BB41">
+        <f t="shared" si="37"/>
+        <v>1.0470311113590987</v>
+      </c>
+      <c r="BC41">
+        <f t="shared" si="38"/>
+        <v>1.1210282086370205</v>
+      </c>
+      <c r="BD41">
+        <f t="shared" si="24"/>
+        <v>1.1283181119906316</v>
+      </c>
+      <c r="BE41">
+        <f t="shared" si="25"/>
+        <v>0.93842497726273066</v>
+      </c>
+      <c r="BF41">
+        <f t="shared" si="26"/>
+        <v>0.96578581961555354</v>
+      </c>
+      <c r="BG41">
+        <f t="shared" si="27"/>
+        <v>0.82249595982753609</v>
+      </c>
+      <c r="BH41">
+        <f t="shared" si="39"/>
+        <v>1.0038473647820949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>36</v>
       </c>
@@ -9967,7 +10935,7 @@
         <v>0.86666666699999995</v>
       </c>
       <c r="S42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>86.666666699999993</v>
       </c>
       <c r="U42">
@@ -9983,11 +10951,109 @@
         <v>0.96666666700000003</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>96.666666700000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB42">
+        <v>56</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD42">
+        <v>44</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="22"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="40"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="31"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="32"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="33"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="36"/>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="AY42">
+        <v>56</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA42">
+        <v>44</v>
+      </c>
+      <c r="BB42">
+        <f t="shared" si="37"/>
+        <v>0.61449148885867522</v>
+      </c>
+      <c r="BC42">
+        <f t="shared" si="38"/>
+        <v>1.0833391194575346</v>
+      </c>
+      <c r="BD42">
+        <f t="shared" si="24"/>
+        <v>0.6194790740625703</v>
+      </c>
+      <c r="BE42">
+        <f t="shared" si="25"/>
+        <v>1.4251170220388401</v>
+      </c>
+      <c r="BF42">
+        <f t="shared" si="26"/>
+        <v>1.4026719405000838</v>
+      </c>
+      <c r="BG42">
+        <f t="shared" si="27"/>
+        <v>1.0901162642970048</v>
+      </c>
+      <c r="BH42">
+        <f t="shared" si="39"/>
+        <v>1.0392024848691181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>36</v>
       </c>
@@ -10040,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="S43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="U43">
@@ -10056,11 +11122,109 @@
         <v>0.93333333299999999</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>93.333333299999993</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB43">
+        <v>58</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD43">
+        <v>49</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="31"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="32"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="33"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="36"/>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="AY43">
+        <v>58</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA43">
+        <v>49</v>
+      </c>
+      <c r="BB43">
+        <f t="shared" si="37"/>
+        <v>0.77333183938046024</v>
+      </c>
+      <c r="BC43">
+        <f t="shared" si="38"/>
+        <v>1.0206779088690661</v>
+      </c>
+      <c r="BD43">
+        <f t="shared" si="24"/>
+        <v>1.0152649379141792</v>
+      </c>
+      <c r="BE43">
+        <f t="shared" si="25"/>
+        <v>1.0298618465906439</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" si="26"/>
+        <v>1.1524483810485622</v>
+      </c>
+      <c r="BG43">
+        <f t="shared" si="27"/>
+        <v>1.1068477518078594</v>
+      </c>
+      <c r="BH43">
+        <f t="shared" si="39"/>
+        <v>1.016405444268462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>36</v>
       </c>
@@ -10113,7 +11277,7 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="S44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>83.333333300000007</v>
       </c>
       <c r="U44">
@@ -10129,11 +11293,109 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB44">
+        <v>59</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD44">
+        <v>51</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="40"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="31"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="32"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="33"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="35"/>
+        <v>0.85714285714285732</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="36"/>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="AY44">
+        <v>59</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA44">
+        <v>51</v>
+      </c>
+      <c r="BB44">
+        <f t="shared" si="37"/>
+        <v>1.1743965406118884</v>
+      </c>
+      <c r="BC44">
+        <f t="shared" si="38"/>
+        <v>0.87827228495932763</v>
+      </c>
+      <c r="BD44">
+        <f t="shared" si="24"/>
+        <v>1.1644399937725505</v>
+      </c>
+      <c r="BE44">
+        <f t="shared" si="25"/>
+        <v>1.2247633071898734</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" si="26"/>
+        <v>0.67959079868472005</v>
+      </c>
+      <c r="BG44">
+        <f t="shared" si="27"/>
+        <v>1.1000630540199616</v>
+      </c>
+      <c r="BH44">
+        <f t="shared" si="39"/>
+        <v>1.0369209965397204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>36</v>
       </c>
@@ -10186,7 +11448,7 @@
         <v>0.9</v>
       </c>
       <c r="S45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="U45">
@@ -10202,11 +11464,109 @@
         <v>0.9</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB45">
+        <v>60</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD45">
+        <v>53</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="31"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="32"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="33"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="36"/>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="AY45">
+        <v>60</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA45">
+        <v>53</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="37"/>
+        <v>1.3954248063301513</v>
+      </c>
+      <c r="BC45">
+        <f t="shared" si="38"/>
+        <v>0.96071202991890858</v>
+      </c>
+      <c r="BD45">
+        <f t="shared" si="24"/>
+        <v>0.75993886977608827</v>
+      </c>
+      <c r="BE45">
+        <f t="shared" si="25"/>
+        <v>1.1040399168782655</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" si="26"/>
+        <v>0.9783201261656651</v>
+      </c>
+      <c r="BG45">
+        <f t="shared" si="27"/>
+        <v>0.91952360694939861</v>
+      </c>
+      <c r="BH45">
+        <f t="shared" si="39"/>
+        <v>1.0196598926697462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>36</v>
       </c>
@@ -10259,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="U46">
@@ -10275,11 +11635,109 @@
         <v>0.96666666700000003</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>96.666666700000007</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB46">
+        <v>61</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD46">
+        <v>55</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="31"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="32"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="33"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="36"/>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="AY46">
+        <v>61</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA46">
+        <v>55</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="37"/>
+        <v>1.0902652274161049</v>
+      </c>
+      <c r="BC46">
+        <f t="shared" si="38"/>
+        <v>1.1295042577554868</v>
+      </c>
+      <c r="BD46">
+        <f t="shared" si="24"/>
+        <v>1.0230356515123853</v>
+      </c>
+      <c r="BE46">
+        <f t="shared" si="25"/>
+        <v>0.88634628321781805</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="26"/>
+        <v>0.93420496761797811</v>
+      </c>
+      <c r="BG46">
+        <f t="shared" si="27"/>
+        <v>0.97913591984088399</v>
+      </c>
+      <c r="BH46">
+        <f t="shared" si="39"/>
+        <v>1.007082051226776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>36</v>
       </c>
@@ -10332,7 +11790,7 @@
         <v>0.9</v>
       </c>
       <c r="S47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="U47">
@@ -10348,11 +11806,109 @@
         <v>0.96666666700000003</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>96.666666700000007</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB47">
+        <v>62</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD47">
+        <v>57</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="31"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="32"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="33"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="36"/>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="AY47">
+        <v>62</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA47">
+        <v>57</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" si="37"/>
+        <v>0.97391105999263961</v>
+      </c>
+      <c r="BC47">
+        <f t="shared" si="38"/>
+        <v>1.1088484547297426</v>
+      </c>
+      <c r="BD47">
+        <f t="shared" si="24"/>
+        <v>0.86622166338150142</v>
+      </c>
+      <c r="BE47">
+        <f t="shared" si="25"/>
+        <v>1.1979088951528587</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" si="26"/>
+        <v>0.95211962825497609</v>
+      </c>
+      <c r="BG47">
+        <f t="shared" si="27"/>
+        <v>0.9488615194288611</v>
+      </c>
+      <c r="BH47">
+        <f t="shared" si="39"/>
+        <v>1.0079785368234297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>36</v>
       </c>
@@ -10405,7 +11961,7 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="S48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>83.333333300000007</v>
       </c>
       <c r="U48">
@@ -10421,11 +11977,109 @@
         <v>0.8</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB48">
+        <v>64</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD48">
+        <v>60</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="22"/>
+        <v>0.6</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="40"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="31"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="32"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="33"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="35"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" si="36"/>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="AY48">
+        <v>64</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA48">
+        <v>60</v>
+      </c>
+      <c r="BB48">
+        <f t="shared" si="37"/>
+        <v>0.88699659518780127</v>
+      </c>
+      <c r="BC48">
+        <f t="shared" si="38"/>
+        <v>0.86625933156077473</v>
+      </c>
+      <c r="BD48">
+        <f t="shared" si="24"/>
+        <v>1.214681454515018</v>
+      </c>
+      <c r="BE48">
+        <f t="shared" si="25"/>
+        <v>1.1637094960360737</v>
+      </c>
+      <c r="BF48">
+        <f t="shared" si="26"/>
+        <v>0.8200316583354389</v>
+      </c>
+      <c r="BG48">
+        <f t="shared" si="27"/>
+        <v>1.0522054076545984</v>
+      </c>
+      <c r="BH48">
+        <f t="shared" si="39"/>
+        <v>1.0006473238816174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>36</v>
       </c>
@@ -10478,7 +12132,7 @@
         <v>0.93333333299999999</v>
       </c>
       <c r="S49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>93.333333299999993</v>
       </c>
       <c r="U49">
@@ -10494,11 +12148,109 @@
         <v>0.96666666700000003</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>96.666666700000007</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB49">
+        <v>65</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD49">
+        <v>63</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="40"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="31"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="32"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="33"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="34"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="35"/>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" si="36"/>
+        <v>1.1320754716981132</v>
+      </c>
+      <c r="AY49">
+        <v>65</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA49">
+        <v>63</v>
+      </c>
+      <c r="BB49">
+        <f t="shared" si="37"/>
+        <v>0.7080456547646794</v>
+      </c>
+      <c r="BC49">
+        <f t="shared" si="38"/>
+        <v>0.88207770145674602</v>
+      </c>
+      <c r="BD49">
+        <f t="shared" si="24"/>
+        <v>1.1359259518146081</v>
+      </c>
+      <c r="BE49">
+        <f t="shared" si="25"/>
+        <v>1.1857287133025141</v>
+      </c>
+      <c r="BF49">
+        <f t="shared" si="26"/>
+        <v>1.071334552948408</v>
+      </c>
+      <c r="BG49">
+        <f t="shared" si="27"/>
+        <v>1.1036769513428741</v>
+      </c>
+      <c r="BH49">
+        <f t="shared" si="39"/>
+        <v>1.014464920938305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>36</v>
       </c>
@@ -10545,7 +12297,7 @@
         <v>0.91406810000000005</v>
       </c>
       <c r="S50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>91.406810000000007</v>
       </c>
       <c r="U50" t="s">
@@ -10553,14 +12305,38 @@
       </c>
       <c r="X50">
         <f>AVERAGE(X38:X49)</f>
-        <v>0.92500000016666684</v>
+        <v>0.91944444458333352</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="21"/>
-        <v>92.500000016666689</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+        <f t="shared" si="29"/>
+        <v>91.944444458333351</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" ref="AE50:AJ50" si="41">AVERAGE(AE38:AE49)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="41"/>
+        <v>0.9</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="41"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="41"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="41"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="41"/>
+        <v>0.88333333333333341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>36</v>
       </c>
@@ -10607,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="U51" t="s">
@@ -10617,11 +12393,41 @@
         <v>1</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AX51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>3</v>
+      </c>
+      <c r="BE51">
+        <v>4</v>
+      </c>
+      <c r="BF51">
+        <v>5</v>
+      </c>
+      <c r="BG51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>36</v>
       </c>
@@ -10668,7 +12474,7 @@
         <v>0.8</v>
       </c>
       <c r="S52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="U52" t="s">
@@ -10678,11 +12484,77 @@
         <v>0.8</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AA52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>2</v>
+      </c>
+      <c r="AG52">
+        <v>3</v>
+      </c>
+      <c r="AH52">
+        <v>4</v>
+      </c>
+      <c r="AI52">
+        <v>5</v>
+      </c>
+      <c r="AJ52">
+        <v>6</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY52">
+        <v>50</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA52">
+        <v>36</v>
+      </c>
+      <c r="BB52">
+        <f>(AE53/$AK53)*($AS18/AM18)</f>
+        <v>1.2755522662001744</v>
+      </c>
+      <c r="BC52">
+        <f t="shared" ref="BC52:BG52" si="42">(AF53/$AK53)*($AS18/AN18)</f>
+        <v>0.90806098940591984</v>
+      </c>
+      <c r="BD52">
+        <f t="shared" si="42"/>
+        <v>0.83740464585766938</v>
+      </c>
+      <c r="BE52">
+        <f t="shared" si="42"/>
+        <v>1.2014848960838742</v>
+      </c>
+      <c r="BF52">
+        <f t="shared" si="42"/>
+        <v>0.67295763807207454</v>
+      </c>
+      <c r="BG52">
+        <f t="shared" si="42"/>
+        <v>1.1684903519812702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>36</v>
       </c>
@@ -10722,8 +12594,81 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AA53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB53">
+        <v>50</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD53">
+        <v>36</v>
+      </c>
+      <c r="AE53">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD53,$I$2:$I$722,"&gt;="&amp;AE$52*5-4,$I$2:$I$722,"&lt;="&amp;AE$52*5)</f>
+        <v>1</v>
+      </c>
+      <c r="AF53">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD53,$I$2:$I$722,"&gt;="&amp;AF$52*5-4,$I$2:$I$722,"&lt;="&amp;AF$52*5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" ref="AG53:AJ64" si="43">AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD53,$I$2:$I$722,"&gt;="&amp;AG$52*5-4,$I$2:$I$722,"&lt;="&amp;AG$52*5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="43"/>
+        <v>0.6</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <f>AVERAGE(AE53:AJ53)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AY53">
+        <v>51</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA53">
+        <v>39</v>
+      </c>
+      <c r="BB53">
+        <f t="shared" ref="BB53:BB63" si="44">(AE54/$AK54)*($AS19/AM19)</f>
+        <v>1.0134177222479441</v>
+      </c>
+      <c r="BC53">
+        <f t="shared" ref="BC53:BC63" si="45">(AF54/$AK54)*($AS19/AN19)</f>
+        <v>0.79910201144953152</v>
+      </c>
+      <c r="BD53">
+        <f t="shared" ref="BD53:BD63" si="46">(AG54/$AK54)*($AS19/AO19)</f>
+        <v>1.2290780682741567</v>
+      </c>
+      <c r="BE53">
+        <f t="shared" ref="BE53:BE63" si="47">(AH54/$AK54)*($AS19/AP19)</f>
+        <v>1.3421793636092505</v>
+      </c>
+      <c r="BF53">
+        <f t="shared" ref="BF53:BF63" si="48">(AI54/$AK54)*($AS19/AQ19)</f>
+        <v>0.97922840863442617</v>
+      </c>
+      <c r="BG53">
+        <f t="shared" ref="BG53:BG63" si="49">(AJ54/$AK54)*($AS19/AR19)</f>
+        <v>0.81470683230539587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>36</v>
       </c>
@@ -10763,8 +12708,78 @@
       <c r="M54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB54">
+        <v>51</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD54">
+        <v>39</v>
+      </c>
+      <c r="AE54">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD54,$I$2:$I$722,"&gt;="&amp;AE$52*5-4,$I$2:$I$722,"&lt;="&amp;AE$52*5)</f>
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD54,$I$2:$I$722,"&gt;="&amp;AF$52*5-4,$I$2:$I$722,"&lt;="&amp;AF$52*5)</f>
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <f>AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD54,$I$2:$I$722,"&gt;="&amp;AG$52*5-4,$I$2:$I$722,"&lt;="&amp;AG$52*5)</f>
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK54">
+        <f>AVERAGE(AE54:AJ54)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AY54">
+        <v>52</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA54">
+        <v>41</v>
+      </c>
+      <c r="BB54">
+        <f t="shared" si="44"/>
+        <v>1.2244271240564337</v>
+      </c>
+      <c r="BC54">
+        <f t="shared" si="45"/>
+        <v>1.1838278412172856</v>
+      </c>
+      <c r="BD54">
+        <f t="shared" si="46"/>
+        <v>0.85239426293704601</v>
+      </c>
+      <c r="BE54">
+        <f t="shared" si="47"/>
+        <v>0.90305965618690531</v>
+      </c>
+      <c r="BF54">
+        <f t="shared" si="48"/>
+        <v>0.82689275898476278</v>
+      </c>
+      <c r="BG54">
+        <f t="shared" si="49"/>
+        <v>1.1228584724410902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>36</v>
       </c>
@@ -10804,8 +12819,78 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB55">
+        <v>52</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD55">
+        <v>41</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" ref="AE55:AG64" si="50">AVERAGEIFS($M$2:$M$722,$A$2:$A$722,"="&amp;$AD55,$I$2:$I$722,"&gt;="&amp;AE$52*5-4,$I$2:$I$722,"&lt;="&amp;AE$52*5)</f>
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" ref="AK55:AK64" si="51">AVERAGE(AE55:AJ55)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AY55">
+        <v>54</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA55">
+        <v>43</v>
+      </c>
+      <c r="BB55">
+        <f t="shared" si="44"/>
+        <v>0.74159224561859638</v>
+      </c>
+      <c r="BC55">
+        <f t="shared" si="45"/>
+        <v>1.2576527068648178</v>
+      </c>
+      <c r="BD55">
+        <f t="shared" si="46"/>
+        <v>0.82139712686845845</v>
+      </c>
+      <c r="BE55">
+        <f t="shared" si="47"/>
+        <v>0.98154530318780886</v>
+      </c>
+      <c r="BF55">
+        <f t="shared" si="48"/>
+        <v>1.1254287550885977</v>
+      </c>
+      <c r="BG55">
+        <f t="shared" si="49"/>
+        <v>1.2479437538490561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>36</v>
       </c>
@@ -10845,8 +12930,78 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB56">
+        <v>54</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD56">
+        <v>43</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="51"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AY56">
+        <v>56</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA56">
+        <v>46</v>
+      </c>
+      <c r="BB56">
+        <f t="shared" si="44"/>
+        <v>0.99992807735502243</v>
+      </c>
+      <c r="BC56">
+        <f t="shared" si="45"/>
+        <v>1.0712201806195318</v>
+      </c>
+      <c r="BD56">
+        <f t="shared" si="46"/>
+        <v>1.0391380625614137</v>
+      </c>
+      <c r="BE56">
+        <f t="shared" si="47"/>
+        <v>0.88633223518823945</v>
+      </c>
+      <c r="BF56">
+        <f t="shared" si="48"/>
+        <v>0.9498974523716901</v>
+      </c>
+      <c r="BG56">
+        <f t="shared" si="49"/>
+        <v>1.0540341726611586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>36</v>
       </c>
@@ -10886,8 +13041,78 @@
       <c r="M57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB57">
+        <v>56</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD57">
+        <v>46</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="51"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AY57">
+        <v>58</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA57">
+        <v>50</v>
+      </c>
+      <c r="BB57">
+        <f t="shared" si="44"/>
+        <v>0.96862204263294072</v>
+      </c>
+      <c r="BC57">
+        <f t="shared" si="45"/>
+        <v>1.2337483635948456</v>
+      </c>
+      <c r="BD57">
+        <f t="shared" si="46"/>
+        <v>1.0066465772324242</v>
+      </c>
+      <c r="BE57">
+        <f t="shared" si="47"/>
+        <v>0.88264879146997077</v>
+      </c>
+      <c r="BF57">
+        <f t="shared" si="48"/>
+        <v>1.1955667925730038</v>
+      </c>
+      <c r="BG57">
+        <f t="shared" si="49"/>
+        <v>0.78363451674859752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>36</v>
       </c>
@@ -10927,8 +13152,78 @@
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB58">
+        <v>58</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD58">
+        <v>50</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="51"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="AY58">
+        <v>59</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA58">
+        <v>52</v>
+      </c>
+      <c r="BB58">
+        <f t="shared" si="44"/>
+        <v>0.93415191317186219</v>
+      </c>
+      <c r="BC58">
+        <f t="shared" si="45"/>
+        <v>1.0466015789886529</v>
+      </c>
+      <c r="BD58">
+        <f t="shared" si="46"/>
+        <v>1.1573847901746803</v>
+      </c>
+      <c r="BE58">
+        <f t="shared" si="47"/>
+        <v>1.0742612162855769</v>
+      </c>
+      <c r="BF58">
+        <f t="shared" si="48"/>
+        <v>0.91778841629146468</v>
+      </c>
+      <c r="BG58">
+        <f t="shared" si="49"/>
+        <v>0.91779161646691299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>36</v>
       </c>
@@ -10968,8 +13263,78 @@
       <c r="M59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB59">
+        <v>59</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD59">
+        <v>52</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="AY59">
+        <v>60</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA59">
+        <v>54</v>
+      </c>
+      <c r="BB59">
+        <f t="shared" si="44"/>
+        <v>0.83544530627438129</v>
+      </c>
+      <c r="BC59">
+        <f t="shared" si="45"/>
+        <v>0.68715870059398054</v>
+      </c>
+      <c r="BD59">
+        <f t="shared" si="46"/>
+        <v>0.95827433776316051</v>
+      </c>
+      <c r="BE59">
+        <f t="shared" si="47"/>
+        <v>1.256184864845086</v>
+      </c>
+      <c r="BF59">
+        <f t="shared" si="48"/>
+        <v>1.4552837536158916</v>
+      </c>
+      <c r="BG59">
+        <f t="shared" si="49"/>
+        <v>1.0414864363041554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>36</v>
       </c>
@@ -11009,8 +13374,78 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB60">
+        <v>60</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD60">
+        <v>54</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="51"/>
+        <v>0.9</v>
+      </c>
+      <c r="AY60">
+        <v>61</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA60">
+        <v>56</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" si="44"/>
+        <v>1.2756980708080023</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="45"/>
+        <v>0.83885173114389966</v>
+      </c>
+      <c r="BD60">
+        <f t="shared" si="46"/>
+        <v>1.1951367797396681</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" si="47"/>
+        <v>1.0621383542987159</v>
+      </c>
+      <c r="BF60">
+        <f t="shared" si="48"/>
+        <v>0.78646269128521129</v>
+      </c>
+      <c r="BG60">
+        <f t="shared" si="49"/>
+        <v>0.98746564981708052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>36</v>
       </c>
@@ -11050,8 +13485,78 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB61">
+        <v>61</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD61">
+        <v>56</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" si="51"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AY61">
+        <v>62</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA61">
+        <v>58</v>
+      </c>
+      <c r="BB61">
+        <f t="shared" si="44"/>
+        <v>0.97170586310460172</v>
+      </c>
+      <c r="BC61">
+        <f t="shared" si="45"/>
+        <v>1.1816357203769772</v>
+      </c>
+      <c r="BD61">
+        <f t="shared" si="46"/>
+        <v>0.93606432011879304</v>
+      </c>
+      <c r="BE61">
+        <f t="shared" si="47"/>
+        <v>0.7980585206022448</v>
+      </c>
+      <c r="BF61">
+        <f t="shared" si="48"/>
+        <v>1.1647348357162941</v>
+      </c>
+      <c r="BG61">
+        <f t="shared" si="49"/>
+        <v>1.0434602144676721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>37</v>
       </c>
@@ -11091,8 +13596,78 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB62">
+        <v>62</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD62">
+        <v>58</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="51"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AY62">
+        <v>64</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA62">
+        <v>62</v>
+      </c>
+      <c r="BB62">
+        <f t="shared" si="44"/>
+        <v>1.2175375553824825</v>
+      </c>
+      <c r="BC62">
+        <f t="shared" si="45"/>
+        <v>1.052603905964496</v>
+      </c>
+      <c r="BD62">
+        <f t="shared" si="46"/>
+        <v>1.3213676137398567</v>
+      </c>
+      <c r="BE62">
+        <f t="shared" si="47"/>
+        <v>0.96985457614596493</v>
+      </c>
+      <c r="BF62">
+        <f t="shared" si="48"/>
+        <v>0.97310261667352171</v>
+      </c>
+      <c r="BG62">
+        <f t="shared" si="49"/>
+        <v>0.49086991908603594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>37</v>
       </c>
@@ -11132,8 +13707,78 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AB63">
+        <v>64</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD63">
+        <v>62</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="43"/>
+        <v>0.4</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="51"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AY63">
+        <v>65</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA63">
+        <v>64</v>
+      </c>
+      <c r="BB63">
+        <f t="shared" si="44"/>
+        <v>0.73021058478333645</v>
+      </c>
+      <c r="BC63">
+        <f t="shared" si="45"/>
+        <v>1.1014460652971103</v>
+      </c>
+      <c r="BD63">
+        <f t="shared" si="46"/>
+        <v>0.98263449171356287</v>
+      </c>
+      <c r="BE63">
+        <f t="shared" si="47"/>
+        <v>1.008776128736836</v>
+      </c>
+      <c r="BF63">
+        <f t="shared" si="48"/>
+        <v>1.1539608398489212</v>
+      </c>
+      <c r="BG63">
+        <f t="shared" si="49"/>
+        <v>1.0858056908247753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>37</v>
       </c>
@@ -11173,8 +13818,45 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="AB64">
+        <v>65</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD64">
+        <v>64</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="50"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="51"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>37</v>
       </c>
@@ -11214,8 +13896,32 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="AE65">
+        <f t="shared" ref="AE65:AJ65" si="52">AVERAGE(AE53:AE64)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="52"/>
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="52"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="52"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="52"/>
+        <v>0.93333333333333346</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="52"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>37</v>
       </c>
@@ -11256,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>37</v>
       </c>
@@ -11297,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>37</v>
       </c>
@@ -11338,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>37</v>
       </c>
@@ -11379,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>37</v>
       </c>
@@ -11420,7 +14126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>37</v>
       </c>
@@ -11461,7 +14167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>37</v>
       </c>
@@ -11502,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>37</v>
       </c>
@@ -11543,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>37</v>
       </c>
@@ -11584,7 +14290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>37</v>
       </c>
@@ -11625,7 +14331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>37</v>
       </c>
@@ -11666,7 +14372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>37</v>
       </c>
@@ -11707,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>37</v>
       </c>
@@ -11748,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>37</v>
       </c>
@@ -11789,7 +14495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>37</v>
       </c>
@@ -12823,7 +15529,7 @@
         <v>12</v>
       </c>
       <c r="R104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.45">

--- a/results/12member.xlsx
+++ b/results/12member.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_thesis\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tease\OneDrive\デスクトップ\研究室\卒論\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C51E3-23E2-4A41-B5DB-11F6D5173BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1942DC-88F2-4851-8A0B-7182E972247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -19,20 +19,20 @@
     <sheet name="12member(自動回復済み)" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'12member(自動回復済み)'!$R$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'12member(自動回復済み)'!$R$38:$R$49</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'12member(自動回復済み)'!$R$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'12member(自動回復済み)'!$R$2:$R$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'12member(自動回復済み)'!$W$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'12member(自動回復済み)'!$W$2:$W$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'12member(自動回復済み)'!$X$37</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'12member(自動回復済み)'!$X$38:$X$49</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'12member(自動回復済み)'!$S$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'12member(自動回復済み)'!$S$38:$S$49</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'12member(自動回復済み)'!$R$37</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'12member(自動回復済み)'!$R$38:$R$49</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'12member(自動回復済み)'!$X$37</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'12member(自動回復済み)'!$X$38:$X$49</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'12member(自動回復済み)'!$Y$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'12member(自動回復済み)'!$Y$38:$Y$49</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'12member(自動回復済み)'!$BH$67:$BH$78</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'12member(自動回復済み)'!$BJ$67:$BJ$78</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'12member(自動回復済み)'!$S$37</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'12member(自動回復済み)'!$S$38:$S$49</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'12member(自動回復済み)'!$Y$37</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'12member(自動回復済み)'!$Y$38:$Y$49</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'12member(自動回復済み)'!$R$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'12member(自動回復済み)'!$R$2:$R$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'12member(自動回復済み)'!$W$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'12member(自動回復済み)'!$W$2:$W$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4209,12 +4209,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4260,7 +4260,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DD78013-E7CF-4A84-8C4B-D3143C86E446}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>進捗表示なし</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4273,7 +4273,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7744D067-8537-42F5-957A-FFBD60973754}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>進捗表示あり</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4337,12 +4337,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4388,7 +4388,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{945B4B01-47D2-43EB-87BB-8A197CCE95A0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>進捗表示なし</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4401,7 +4401,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1D961CFE-8562-4813-9FFE-70FC11B1F783}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>進捗表示あり</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4459,12 +4459,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4503,7 +4503,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4E7E4391-6A53-4D7D-89D3-7CBC3F957C68}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>進捗表示なし</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4516,7 +4516,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{994E9EF6-BE40-45DE-BDF7-5EC90D424487}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>進捗表示あり</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10295,8 +10295,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11035404" y="4007540"/>
-              <a:ext cx="4691421" cy="2838450"/>
+              <a:off x="10791564" y="3847520"/>
+              <a:ext cx="4599981" cy="2724150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10373,8 +10373,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12045132" y="12473858"/>
-              <a:ext cx="4957097" cy="2857499"/>
+              <a:off x="11786052" y="11970938"/>
+              <a:ext cx="4850417" cy="2743199"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10451,8 +10451,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9587270" y="12630356"/>
-              <a:ext cx="4669504" cy="2847667"/>
+              <a:off x="9389150" y="12127436"/>
+              <a:ext cx="4562824" cy="2733367"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10601,8 +10601,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29414176" y="16517571"/>
-              <a:ext cx="4428636" cy="2594952"/>
+              <a:off x="28823626" y="15852726"/>
+              <a:ext cx="4337196" cy="2490177"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11082,9 +11082,9 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:44" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>38</v>
@@ -11207,7 +11207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>1.0389722332327758</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>7.8442210526174352E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>-0.11267567892347426</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>-0.12724732961407581</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>0.45185188321039416</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>0.90370376642078831</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:44" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="AR14" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.45">
       <c r="G16" t="s">
         <v>37</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="7:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G17">
         <v>9</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>38</v>
@@ -11971,7 +11971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>40</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>1.010472300200757</v>
       </c>
     </row>
-    <row r="20" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
         <v>41</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>2.2772951279360142E-2</v>
       </c>
     </row>
-    <row r="21" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G21" t="s">
         <v>42</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G22" t="s">
         <v>43</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>0.6172777997407316</v>
       </c>
     </row>
-    <row r="23" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G23" t="s">
         <v>44</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G24" t="s">
         <v>45</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>46</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>6.5794031906333955E-2</v>
       </c>
     </row>
-    <row r="26" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
         <v>47</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>0.47504574626487184</v>
       </c>
     </row>
-    <row r="27" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G27" t="s">
         <v>48</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="28" spans="7:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="7:24" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
         <v>49</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>0.95009149252974368</v>
       </c>
     </row>
-    <row r="29" spans="7:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="7:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G29" s="1" t="s">
         <v>50</v>
       </c>
@@ -12312,9 +12312,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>38</v>
@@ -12359,7 +12359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>0.93888888888888899</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>3.1986531986532003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>0.46157857778100103</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>-1.29536330876512</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0.11085991232135324</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>1.7958848187040437</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0.22171982464270648</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -12623,9 +12623,9 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>38</v>
@@ -12670,7 +12670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>0.9750345192255151</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>1.6994040153335811E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>-0.19792597886098129</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>0.49667836525240422</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0.32023969370479599</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>2.0150483733330233</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>0.64047938740959198</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -12930,25 +12930,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR68" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="23" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BL94" sqref="BL94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="13.75" customWidth="1"/>
-    <col min="65" max="65" width="10.25" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="13.69921875" customWidth="1"/>
+    <col min="65" max="65" width="10.19921875" customWidth="1"/>
     <col min="66" max="67" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="15.875" customWidth="1"/>
-    <col min="74" max="75" width="15.375" customWidth="1"/>
-    <col min="78" max="79" width="18.625" customWidth="1"/>
+    <col min="70" max="71" width="15.8984375" customWidth="1"/>
+    <col min="74" max="75" width="15.3984375" customWidth="1"/>
+    <col min="78" max="79" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>35</v>
       </c>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="CA2" s="23"/>
     </row>
-    <row r="3" spans="1:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>35</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>35</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>0.86552475448362276</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>35</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>1.0178340539398463</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>35</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>0.97268587979246168</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>35</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>0.99997726987497748</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>35</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>0.97947384301835305</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>35</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>0.96845795383531608</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>35</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>1.0356699069123729</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>35</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>0.95210065093197527</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>35</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>0.99713173043632597</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>35</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>1.001408834344147</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>35</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0.82792447667367364</v>
       </c>
     </row>
-    <row r="15" spans="1:79" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>35</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>0.99685448523253772</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>35</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>4934.6666670000004</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>35</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>35</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>35</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>35</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>35</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>35</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>35</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>35</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>35</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>35</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>35</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>35</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>35</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>35</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>8177.2555555555555</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>35</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>2000.6941529329879</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>36</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>36</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>36</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>36</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>36</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17239,7 +17239,7 @@
       </c>
       <c r="BI37" s="3"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>36</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>36</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>36</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>36</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>36</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>36</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>36</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>36</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>36</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>36</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>36</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>36</v>
       </c>
@@ -19515,7 +19515,7 @@
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>36</v>
       </c>
@@ -19616,7 +19616,7 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>36</v>
       </c>
@@ -19745,7 +19745,7 @@
       <c r="BH52" s="3"/>
       <c r="BI52" s="3"/>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>36</v>
       </c>
@@ -19862,7 +19862,7 @@
       <c r="BH53" s="3"/>
       <c r="BI53" s="3"/>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>36</v>
       </c>
@@ -19976,7 +19976,7 @@
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>36</v>
       </c>
@@ -20090,7 +20090,7 @@
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>36</v>
       </c>
@@ -20204,7 +20204,7 @@
       <c r="BH56" s="3"/>
       <c r="BI56" s="3"/>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>36</v>
       </c>
@@ -20318,7 +20318,7 @@
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>36</v>
       </c>
@@ -20432,7 +20432,7 @@
       <c r="BH58" s="3"/>
       <c r="BI58" s="3"/>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>36</v>
       </c>
@@ -20546,7 +20546,7 @@
       <c r="BH59" s="3"/>
       <c r="BI59" s="3"/>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>36</v>
       </c>
@@ -20660,7 +20660,7 @@
       <c r="BH60" s="3"/>
       <c r="BI60" s="3"/>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>36</v>
       </c>
@@ -20774,7 +20774,7 @@
       <c r="BH61" s="3"/>
       <c r="BI61" s="3"/>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>37</v>
       </c>
@@ -20888,7 +20888,7 @@
       <c r="BH62" s="3"/>
       <c r="BI62" s="3"/>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>37</v>
       </c>
@@ -21002,7 +21002,7 @@
       <c r="BH63" s="3"/>
       <c r="BI63" s="3"/>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>37</v>
       </c>
@@ -21092,7 +21092,7 @@
       <c r="BH64" s="3"/>
       <c r="BI64" s="3"/>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>37</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>5.4148857471160924E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>37</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>37</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>0.82440052563205091</v>
       </c>
     </row>
-    <row r="68" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>37</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>1.0225325171546127</v>
       </c>
     </row>
-    <row r="69" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>37</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>1.163070619458602</v>
       </c>
     </row>
-    <row r="70" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>37</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>0.9676664440230236</v>
       </c>
     </row>
-    <row r="71" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>37</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>1.0040411461383951</v>
       </c>
     </row>
-    <row r="72" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>37</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>0.82581066733111996</v>
       </c>
     </row>
-    <row r="73" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>37</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>1.0356699069123729</v>
       </c>
     </row>
-    <row r="74" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>37</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>0.95210065093197527</v>
       </c>
     </row>
-    <row r="75" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>37</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>0.99713173043632597</v>
       </c>
     </row>
-    <row r="76" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>37</v>
       </c>
@@ -22161,7 +22161,7 @@
         <v>1.001408834344147</v>
       </c>
     </row>
-    <row r="77" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>37</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>0.82792447667367364</v>
       </c>
     </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>37</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>0.99685448523253772</v>
       </c>
     </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>37</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>0.93768755251238733</v>
       </c>
     </row>
-    <row r="80" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>37</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>37</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>0.86552475448362276</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>37</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>1.0178340539398463</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>37</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>0.97268587979246168</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>37</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>0.99997726987497748</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>37</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>0.97947384301835305</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>37</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>0.96845795383531608</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>37</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>1.0356699069123729</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>37</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>0.95210065093197527</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>37</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>0.99713173043632597</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>37</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>1.001408834344147</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>37</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>0.82792447667367364</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>39</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>0.99685448523253772</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>39</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>0.9679203199563009</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>39</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>0.89919523959316361</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>39</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>0.70503705221459545</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>39</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>0.9514227925791604</v>
       </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>39</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>1.071584910518862</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>39</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>0.9103642110836021</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>39</v>
       </c>
@@ -23967,7 +23967,7 @@
         <v>0.65643416877145278</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>39</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>0.8256754369056799</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>39</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>0.84080102498635501</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>39</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>0.85058730596720189</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>39</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>0.90710461960573796</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>39</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>0.35176559209211516</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>39</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>0.93975565365551428</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>39</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>0.81289300587993085</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>39</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>39</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>39</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>39</v>
       </c>
@@ -24794,7 +24794,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>39</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>0.93548387099999997</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>39</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>39</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>0.86666666699999995</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>39</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>39</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>39</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>0.93333333299999999</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>39</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>0.83333333300000001</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>39</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>39</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>39</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>39</v>
       </c>
@@ -25377,7 +25377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>40</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>40</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>40</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>40</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>0.83333333300000001</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>40</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>40</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>0.93333333299999999</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>40</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>0.96666666700000003</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>40</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>40</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>40</v>
       </c>
@@ -25871,7 +25871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>40</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>40</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>40</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>40</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>40</v>
       </c>
@@ -26076,7 +26076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>40</v>
       </c>
@@ -26117,7 +26117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>40</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>40</v>
       </c>
@@ -26199,7 +26199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>40</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>40</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>40</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>40</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>40</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>40</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>40</v>
       </c>
@@ -26486,7 +26486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>40</v>
       </c>
@@ -26527,7 +26527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>40</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>40</v>
       </c>
@@ -26609,7 +26609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>40</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>40</v>
       </c>
@@ -26691,7 +26691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>41</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>41</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>41</v>
       </c>
@@ -26814,7 +26814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>41</v>
       </c>
@@ -26855,7 +26855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>41</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>41</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>41</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>41</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>41</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>41</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>41</v>
       </c>
@@ -27142,7 +27142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>41</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>41</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>41</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>41</v>
       </c>
@@ -27306,7 +27306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>41</v>
       </c>
@@ -27347,7 +27347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>41</v>
       </c>
@@ -27388,7 +27388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>41</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>41</v>
       </c>
@@ -27470,7 +27470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>41</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>41</v>
       </c>
@@ -27552,7 +27552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>41</v>
       </c>
@@ -27593,7 +27593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>41</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>41</v>
       </c>
@@ -27675,7 +27675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>41</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>41</v>
       </c>
@@ -27757,7 +27757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>41</v>
       </c>
@@ -27798,7 +27798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>41</v>
       </c>
@@ -27839,7 +27839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>41</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>41</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>42</v>
       </c>
@@ -27962,7 +27962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>42</v>
       </c>
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>42</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>42</v>
       </c>
@@ -28085,7 +28085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>42</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>42</v>
       </c>
@@ -28167,7 +28167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>42</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>42</v>
       </c>
@@ -28249,7 +28249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>42</v>
       </c>
@@ -28290,7 +28290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>42</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>42</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>42</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>42</v>
       </c>
@@ -28454,7 +28454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>42</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>42</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>42</v>
       </c>
@@ -28577,7 +28577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>42</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>42</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>42</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>42</v>
       </c>
@@ -28741,7 +28741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>42</v>
       </c>
@@ -28782,7 +28782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>42</v>
       </c>
@@ -28823,7 +28823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>42</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>42</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>42</v>
       </c>
@@ -28946,7 +28946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>42</v>
       </c>
@@ -28987,7 +28987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>42</v>
       </c>
@@ -29028,7 +29028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>42</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>42</v>
       </c>
@@ -29110,7 +29110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>42</v>
       </c>
@@ -29151,7 +29151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>42</v>
       </c>
@@ -29192,7 +29192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>43</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>43</v>
       </c>
@@ -29274,7 +29274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>43</v>
       </c>
@@ -29315,7 +29315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>43</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>43</v>
       </c>
@@ -29397,7 +29397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>43</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>43</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>43</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>43</v>
       </c>
@@ -29561,7 +29561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>43</v>
       </c>
@@ -29602,7 +29602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>43</v>
       </c>
@@ -29643,7 +29643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>43</v>
       </c>
@@ -29684,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>43</v>
       </c>
@@ -29725,7 +29725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>43</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>43</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>43</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>43</v>
       </c>
@@ -29889,7 +29889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>43</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>43</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>43</v>
       </c>
@@ -30012,7 +30012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>43</v>
       </c>
@@ -30053,7 +30053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>43</v>
       </c>
@@ -30094,7 +30094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>43</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>43</v>
       </c>
@@ -30176,7 +30176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>43</v>
       </c>
@@ -30217,7 +30217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>43</v>
       </c>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>43</v>
       </c>
@@ -30299,7 +30299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>43</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>43</v>
       </c>
@@ -30381,7 +30381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>43</v>
       </c>
@@ -30422,7 +30422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>44</v>
       </c>
@@ -30463,7 +30463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>44</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>44</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>44</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>44</v>
       </c>
@@ -30627,7 +30627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>44</v>
       </c>
@@ -30668,7 +30668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>44</v>
       </c>
@@ -30709,7 +30709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>44</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>44</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>44</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>44</v>
       </c>
@@ -30873,7 +30873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>44</v>
       </c>
@@ -30914,7 +30914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>44</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>44</v>
       </c>
@@ -30996,7 +30996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>44</v>
       </c>
@@ -31037,7 +31037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>44</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>44</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>44</v>
       </c>
@@ -31160,7 +31160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>44</v>
       </c>
@@ -31201,7 +31201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>44</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>44</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>44</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>44</v>
       </c>
@@ -31365,7 +31365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>44</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>44</v>
       </c>
@@ -31447,7 +31447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>44</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>44</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>44</v>
       </c>
@@ -31570,7 +31570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>44</v>
       </c>
@@ -31611,7 +31611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>44</v>
       </c>
@@ -31652,7 +31652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>46</v>
       </c>
@@ -31693,7 +31693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>46</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>46</v>
       </c>
@@ -31775,7 +31775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>46</v>
       </c>
@@ -31816,7 +31816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>46</v>
       </c>
@@ -31857,7 +31857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>46</v>
       </c>
@@ -31898,7 +31898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>46</v>
       </c>
@@ -31939,7 +31939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>46</v>
       </c>
@@ -31980,7 +31980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>46</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>46</v>
       </c>
@@ -32062,7 +32062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>46</v>
       </c>
@@ -32103,7 +32103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>46</v>
       </c>
@@ -32144,7 +32144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>46</v>
       </c>
@@ -32185,7 +32185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>46</v>
       </c>
@@ -32226,7 +32226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>46</v>
       </c>
@@ -32267,7 +32267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>46</v>
       </c>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>46</v>
       </c>
@@ -32349,7 +32349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>46</v>
       </c>
@@ -32390,7 +32390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>46</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>46</v>
       </c>
@@ -32472,7 +32472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>46</v>
       </c>
@@ -32513,7 +32513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>46</v>
       </c>
@@ -32554,7 +32554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>46</v>
       </c>
@@ -32595,7 +32595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>46</v>
       </c>
@@ -32636,7 +32636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>46</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>46</v>
       </c>
@@ -32718,7 +32718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>46</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>46</v>
       </c>
@@ -32800,7 +32800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>46</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>46</v>
       </c>
@@ -32882,7 +32882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>49</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>49</v>
       </c>
@@ -32964,7 +32964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>49</v>
       </c>
@@ -33005,7 +33005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>49</v>
       </c>
@@ -33046,7 +33046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>49</v>
       </c>
@@ -33087,7 +33087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>49</v>
       </c>
@@ -33128,7 +33128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>49</v>
       </c>
@@ -33169,7 +33169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>49</v>
       </c>
@@ -33210,7 +33210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>49</v>
       </c>
@@ -33251,7 +33251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>49</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>49</v>
       </c>
@@ -33333,7 +33333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>49</v>
       </c>
@@ -33374,7 +33374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>49</v>
       </c>
@@ -33415,7 +33415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>49</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>49</v>
       </c>
@@ -33497,7 +33497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>49</v>
       </c>
@@ -33538,7 +33538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>49</v>
       </c>
@@ -33579,7 +33579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>49</v>
       </c>
@@ -33620,7 +33620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>49</v>
       </c>
@@ -33661,7 +33661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>49</v>
       </c>
@@ -33702,7 +33702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>49</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>49</v>
       </c>
@@ -33784,7 +33784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>49</v>
       </c>
@@ -33825,7 +33825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>49</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>49</v>
       </c>
@@ -33907,7 +33907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>49</v>
       </c>
@@ -33948,7 +33948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>49</v>
       </c>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>49</v>
       </c>
@@ -34030,7 +34030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>49</v>
       </c>
@@ -34071,7 +34071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>49</v>
       </c>
@@ -34112,7 +34112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>50</v>
       </c>
@@ -34153,7 +34153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>50</v>
       </c>
@@ -34194,7 +34194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>50</v>
       </c>
@@ -34235,7 +34235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>50</v>
       </c>
@@ -34276,7 +34276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>50</v>
       </c>
@@ -34317,7 +34317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>50</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>50</v>
       </c>
@@ -34399,7 +34399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>50</v>
       </c>
@@ -34440,7 +34440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>50</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>50</v>
       </c>
@@ -34522,7 +34522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>50</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>50</v>
       </c>
@@ -34604,7 +34604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>50</v>
       </c>
@@ -34645,7 +34645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>50</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>50</v>
       </c>
@@ -34727,7 +34727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>50</v>
       </c>
@@ -34768,7 +34768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>50</v>
       </c>
@@ -34809,7 +34809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>50</v>
       </c>
@@ -34850,7 +34850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>50</v>
       </c>
@@ -34891,7 +34891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>50</v>
       </c>
@@ -34932,7 +34932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>50</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>50</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>50</v>
       </c>
@@ -35055,7 +35055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>50</v>
       </c>
@@ -35096,7 +35096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>50</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>50</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>50</v>
       </c>
@@ -35219,7 +35219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>50</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>50</v>
       </c>
@@ -35301,7 +35301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>50</v>
       </c>
@@ -35342,7 +35342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>51</v>
       </c>
@@ -35383,7 +35383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>51</v>
       </c>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>51</v>
       </c>
@@ -35465,7 +35465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>51</v>
       </c>
@@ -35506,7 +35506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>51</v>
       </c>
@@ -35547,7 +35547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>51</v>
       </c>
@@ -35588,7 +35588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>51</v>
       </c>
@@ -35629,7 +35629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>51</v>
       </c>
@@ -35670,7 +35670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>51</v>
       </c>
@@ -35711,7 +35711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>51</v>
       </c>
@@ -35752,7 +35752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>51</v>
       </c>
@@ -35793,7 +35793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>51</v>
       </c>
@@ -35834,7 +35834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>51</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>51</v>
       </c>
@@ -35916,7 +35916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>51</v>
       </c>
@@ -35957,7 +35957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>51</v>
       </c>
@@ -35998,7 +35998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>51</v>
       </c>
@@ -36039,7 +36039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>51</v>
       </c>
@@ -36080,7 +36080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>51</v>
       </c>
@@ -36121,7 +36121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>51</v>
       </c>
@@ -36162,7 +36162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>51</v>
       </c>
@@ -36203,7 +36203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>51</v>
       </c>
@@ -36244,7 +36244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>51</v>
       </c>
@@ -36285,7 +36285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>51</v>
       </c>
@@ -36326,7 +36326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>51</v>
       </c>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>51</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>51</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>51</v>
       </c>
@@ -36490,7 +36490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>51</v>
       </c>
@@ -36531,7 +36531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>51</v>
       </c>
@@ -36572,7 +36572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>52</v>
       </c>
@@ -36613,7 +36613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>52</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>52</v>
       </c>
@@ -36695,7 +36695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>52</v>
       </c>
@@ -36736,7 +36736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>52</v>
       </c>
@@ -36777,7 +36777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>52</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>52</v>
       </c>
@@ -36859,7 +36859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>52</v>
       </c>
@@ -36900,7 +36900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>52</v>
       </c>
@@ -36941,7 +36941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>52</v>
       </c>
@@ -36982,7 +36982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>52</v>
       </c>
@@ -37023,7 +37023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>52</v>
       </c>
@@ -37064,7 +37064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>52</v>
       </c>
@@ -37105,7 +37105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>52</v>
       </c>
@@ -37146,7 +37146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>52</v>
       </c>
@@ -37187,7 +37187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>52</v>
       </c>
@@ -37228,7 +37228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>52</v>
       </c>
@@ -37269,7 +37269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>52</v>
       </c>
@@ -37310,7 +37310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>52</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>52</v>
       </c>
@@ -37392,7 +37392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>52</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>52</v>
       </c>
@@ -37474,7 +37474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>52</v>
       </c>
@@ -37515,7 +37515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>52</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>52</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>52</v>
       </c>
@@ -37638,7 +37638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>52</v>
       </c>
@@ -37679,7 +37679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>52</v>
       </c>
@@ -37720,7 +37720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>52</v>
       </c>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>52</v>
       </c>
@@ -37802,7 +37802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>53</v>
       </c>
@@ -37843,7 +37843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>53</v>
       </c>
@@ -37884,7 +37884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>53</v>
       </c>
@@ -37925,7 +37925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>53</v>
       </c>
@@ -37966,7 +37966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>53</v>
       </c>
@@ -38007,7 +38007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>53</v>
       </c>
@@ -38048,7 +38048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>53</v>
       </c>
@@ -38089,7 +38089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>53</v>
       </c>
@@ -38130,7 +38130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>53</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>53</v>
       </c>
@@ -38212,7 +38212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>53</v>
       </c>
@@ -38253,7 +38253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>53</v>
       </c>
@@ -38294,7 +38294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>53</v>
       </c>
@@ -38335,7 +38335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>53</v>
       </c>
@@ -38376,7 +38376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>53</v>
       </c>
@@ -38417,7 +38417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>53</v>
       </c>
@@ -38458,7 +38458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>53</v>
       </c>
@@ -38499,7 +38499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>53</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>53</v>
       </c>
@@ -38581,7 +38581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>53</v>
       </c>
@@ -38622,7 +38622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>53</v>
       </c>
@@ -38663,7 +38663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>53</v>
       </c>
@@ -38704,7 +38704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>53</v>
       </c>
@@ -38745,7 +38745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>53</v>
       </c>
@@ -38786,7 +38786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>53</v>
       </c>
@@ -38827,7 +38827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>53</v>
       </c>
@@ -38868,7 +38868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>53</v>
       </c>
@@ -38909,7 +38909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>53</v>
       </c>
@@ -38950,7 +38950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>53</v>
       </c>
@@ -38991,7 +38991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>53</v>
       </c>
@@ -39032,7 +39032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>54</v>
       </c>
@@ -39073,7 +39073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>54</v>
       </c>
@@ -39114,7 +39114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>54</v>
       </c>
@@ -39155,7 +39155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>54</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>54</v>
       </c>
@@ -39237,7 +39237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>54</v>
       </c>
@@ -39278,7 +39278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>54</v>
       </c>
@@ -39319,7 +39319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>54</v>
       </c>
@@ -39360,7 +39360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>54</v>
       </c>
@@ -39401,7 +39401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>54</v>
       </c>
@@ -39442,7 +39442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>54</v>
       </c>
@@ -39483,7 +39483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>54</v>
       </c>
@@ -39524,7 +39524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>54</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>54</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>54</v>
       </c>
@@ -39647,7 +39647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>54</v>
       </c>
@@ -39688,7 +39688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>54</v>
       </c>
@@ -39729,7 +39729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>54</v>
       </c>
@@ -39770,7 +39770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>54</v>
       </c>
@@ -39811,7 +39811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>54</v>
       </c>
@@ -39852,7 +39852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>54</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>54</v>
       </c>
@@ -39934,7 +39934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>54</v>
       </c>
@@ -39975,7 +39975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>54</v>
       </c>
@@ -40016,7 +40016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>54</v>
       </c>
@@ -40057,7 +40057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>54</v>
       </c>
@@ -40098,7 +40098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>54</v>
       </c>
@@ -40139,7 +40139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>54</v>
       </c>
@@ -40180,7 +40180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>54</v>
       </c>
@@ -40221,7 +40221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>54</v>
       </c>
@@ -40262,7 +40262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>55</v>
       </c>
@@ -40303,7 +40303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>55</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>55</v>
       </c>
@@ -40385,7 +40385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>55</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>55</v>
       </c>
@@ -40467,7 +40467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>55</v>
       </c>
@@ -40508,7 +40508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>55</v>
       </c>
@@ -40549,7 +40549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>55</v>
       </c>
@@ -40590,7 +40590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>55</v>
       </c>
@@ -40631,7 +40631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>55</v>
       </c>
@@ -40672,7 +40672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>55</v>
       </c>
@@ -40713,7 +40713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>55</v>
       </c>
@@ -40754,7 +40754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>55</v>
       </c>
@@ -40795,7 +40795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>55</v>
       </c>
@@ -40836,7 +40836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>55</v>
       </c>
@@ -40877,7 +40877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>55</v>
       </c>
@@ -40918,7 +40918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>55</v>
       </c>
@@ -40959,7 +40959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>55</v>
       </c>
@@ -41000,7 +41000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>55</v>
       </c>
@@ -41041,7 +41041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>55</v>
       </c>
@@ -41082,7 +41082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>55</v>
       </c>
@@ -41123,7 +41123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>55</v>
       </c>
@@ -41164,7 +41164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>55</v>
       </c>
@@ -41205,7 +41205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>55</v>
       </c>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>55</v>
       </c>
@@ -41287,7 +41287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>55</v>
       </c>
@@ -41328,7 +41328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>55</v>
       </c>
@@ -41369,7 +41369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>55</v>
       </c>
@@ -41410,7 +41410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>55</v>
       </c>
@@ -41451,7 +41451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>55</v>
       </c>
@@ -41492,7 +41492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>56</v>
       </c>
@@ -41533,7 +41533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>56</v>
       </c>
@@ -41574,7 +41574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>56</v>
       </c>
@@ -41615,7 +41615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>56</v>
       </c>
@@ -41656,7 +41656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>56</v>
       </c>
@@ -41697,7 +41697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>56</v>
       </c>
@@ -41738,7 +41738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>56</v>
       </c>
@@ -41779,7 +41779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>56</v>
       </c>
@@ -41820,7 +41820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>56</v>
       </c>
@@ -41861,7 +41861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>56</v>
       </c>
@@ -41902,7 +41902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>56</v>
       </c>
@@ -41943,7 +41943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>56</v>
       </c>
@@ -41984,7 +41984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>56</v>
       </c>
@@ -42025,7 +42025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>56</v>
       </c>
@@ -42066,7 +42066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>56</v>
       </c>
@@ -42107,7 +42107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>56</v>
       </c>
@@ -42148,7 +42148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>56</v>
       </c>
@@ -42189,7 +42189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>56</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>56</v>
       </c>
@@ -42271,7 +42271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>56</v>
       </c>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>56</v>
       </c>
@@ -42353,7 +42353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>56</v>
       </c>
@@ -42394,7 +42394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>56</v>
       </c>
@@ -42435,7 +42435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>56</v>
       </c>
@@ -42476,7 +42476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>56</v>
       </c>
@@ -42517,7 +42517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>56</v>
       </c>
@@ -42558,7 +42558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>56</v>
       </c>
@@ -42599,7 +42599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>56</v>
       </c>
@@ -42640,7 +42640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>56</v>
       </c>
@@ -42681,7 +42681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>56</v>
       </c>
@@ -42722,7 +42722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>57</v>
       </c>
@@ -42763,7 +42763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>57</v>
       </c>
@@ -42804,7 +42804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>57</v>
       </c>
@@ -42845,7 +42845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>57</v>
       </c>
@@ -42886,7 +42886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>57</v>
       </c>
@@ -42927,7 +42927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>57</v>
       </c>
@@ -42968,7 +42968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>57</v>
       </c>
@@ -43009,7 +43009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>57</v>
       </c>
@@ -43050,7 +43050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>57</v>
       </c>
@@ -43091,7 +43091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>57</v>
       </c>
@@ -43132,7 +43132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>57</v>
       </c>
@@ -43173,7 +43173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>57</v>
       </c>
@@ -43214,7 +43214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>57</v>
       </c>
@@ -43255,7 +43255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>57</v>
       </c>
@@ -43296,7 +43296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>57</v>
       </c>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>57</v>
       </c>
@@ -43378,7 +43378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>57</v>
       </c>
@@ -43419,7 +43419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>57</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>57</v>
       </c>
@@ -43501,7 +43501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>57</v>
       </c>
@@ -43542,7 +43542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>57</v>
       </c>
@@ -43583,7 +43583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>57</v>
       </c>
@@ -43624,7 +43624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>57</v>
       </c>
@@ -43665,7 +43665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>57</v>
       </c>
@@ -43706,7 +43706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>57</v>
       </c>
@@ -43747,7 +43747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>57</v>
       </c>
@@ -43788,7 +43788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>57</v>
       </c>
@@ -43829,7 +43829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>57</v>
       </c>
@@ -43870,7 +43870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>57</v>
       </c>
@@ -43911,7 +43911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>57</v>
       </c>
@@ -43952,7 +43952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>58</v>
       </c>
@@ -43993,7 +43993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>58</v>
       </c>
@@ -44034,7 +44034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>58</v>
       </c>
@@ -44075,7 +44075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>58</v>
       </c>
@@ -44116,7 +44116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>58</v>
       </c>
@@ -44157,7 +44157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>58</v>
       </c>
@@ -44198,7 +44198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>58</v>
       </c>
@@ -44239,7 +44239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>58</v>
       </c>
@@ -44280,7 +44280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>58</v>
       </c>
@@ -44321,7 +44321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>58</v>
       </c>
@@ -44362,7 +44362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>58</v>
       </c>
@@ -44403,7 +44403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>58</v>
       </c>
@@ -44444,7 +44444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>58</v>
       </c>
@@ -44485,7 +44485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>58</v>
       </c>
@@ -44526,7 +44526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>58</v>
       </c>
@@ -44567,7 +44567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>58</v>
       </c>
@@ -44608,7 +44608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>58</v>
       </c>
@@ -44649,7 +44649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>58</v>
       </c>
@@ -44690,7 +44690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>58</v>
       </c>
@@ -44731,7 +44731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>58</v>
       </c>
@@ -44772,7 +44772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>58</v>
       </c>
@@ -44813,7 +44813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>58</v>
       </c>
@@ -44854,7 +44854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>58</v>
       </c>
@@ -44895,7 +44895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>58</v>
       </c>
@@ -44936,7 +44936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>58</v>
       </c>
@@ -44977,7 +44977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>58</v>
       </c>
@@ -45018,7 +45018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>58</v>
       </c>
@@ -45059,7 +45059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>58</v>
       </c>
@@ -45100,7 +45100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>58</v>
       </c>
@@ -45141,7 +45141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>58</v>
       </c>
@@ -45182,7 +45182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>60</v>
       </c>
@@ -45223,7 +45223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>60</v>
       </c>
@@ -45264,7 +45264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>60</v>
       </c>
@@ -45305,7 +45305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>60</v>
       </c>
@@ -45346,7 +45346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>60</v>
       </c>
@@ -45387,7 +45387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>60</v>
       </c>
@@ -45428,7 +45428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>60</v>
       </c>
@@ -45469,7 +45469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>60</v>
       </c>
@@ -45510,7 +45510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>60</v>
       </c>
@@ -45551,7 +45551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>60</v>
       </c>
@@ -45592,7 +45592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>60</v>
       </c>
@@ -45633,7 +45633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>60</v>
       </c>
@@ -45674,7 +45674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>60</v>
       </c>
@@ -45715,7 +45715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>60</v>
       </c>
@@ -45756,7 +45756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>60</v>
       </c>
@@ -45797,7 +45797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>60</v>
       </c>
@@ -45838,7 +45838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>60</v>
       </c>
@@ -45879,7 +45879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>60</v>
       </c>
@@ -45920,7 +45920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>60</v>
       </c>
@@ -45961,7 +45961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>60</v>
       </c>
@@ -46002,7 +46002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>60</v>
       </c>
@@ -46043,7 +46043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>60</v>
       </c>
@@ -46084,7 +46084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>60</v>
       </c>
@@ -46125,7 +46125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>60</v>
       </c>
@@ -46166,7 +46166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>60</v>
       </c>
@@ -46207,7 +46207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>60</v>
       </c>
@@ -46248,7 +46248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>60</v>
       </c>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>60</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>60</v>
       </c>
@@ -46371,7 +46371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>60</v>
       </c>
@@ -46412,7 +46412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>62</v>
       </c>
@@ -46453,7 +46453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>62</v>
       </c>
@@ -46494,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>62</v>
       </c>
@@ -46535,7 +46535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>62</v>
       </c>
@@ -46576,7 +46576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>62</v>
       </c>
@@ -46617,7 +46617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>62</v>
       </c>
@@ -46658,7 +46658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>62</v>
       </c>
@@ -46699,7 +46699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>62</v>
       </c>
@@ -46740,7 +46740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>62</v>
       </c>
@@ -46781,7 +46781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>62</v>
       </c>
@@ -46822,7 +46822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>62</v>
       </c>
@@ -46863,7 +46863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>62</v>
       </c>
@@ -46904,7 +46904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>62</v>
       </c>
@@ -46945,7 +46945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>62</v>
       </c>
@@ -46986,7 +46986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>62</v>
       </c>
@@ -47027,7 +47027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>62</v>
       </c>
@@ -47068,7 +47068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>62</v>
       </c>
@@ -47109,7 +47109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>62</v>
       </c>
@@ -47150,7 +47150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>62</v>
       </c>
@@ -47191,7 +47191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>62</v>
       </c>
@@ -47232,7 +47232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>62</v>
       </c>
@@ -47273,7 +47273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>62</v>
       </c>
@@ -47314,7 +47314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>62</v>
       </c>
@@ -47355,7 +47355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>62</v>
       </c>
@@ -47396,7 +47396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>62</v>
       </c>
@@ -47437,7 +47437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>62</v>
       </c>
@@ -47478,7 +47478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>62</v>
       </c>
@@ -47519,7 +47519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>62</v>
       </c>
@@ -47560,7 +47560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>62</v>
       </c>
@@ -47601,7 +47601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>62</v>
       </c>
@@ -47642,7 +47642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>63</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>63</v>
       </c>
@@ -47724,7 +47724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>63</v>
       </c>
@@ -47765,7 +47765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>63</v>
       </c>
@@ -47806,7 +47806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>63</v>
       </c>
@@ -47847,7 +47847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>63</v>
       </c>
@@ -47888,7 +47888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>63</v>
       </c>
@@ -47929,7 +47929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>63</v>
       </c>
@@ -47970,7 +47970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>63</v>
       </c>
@@ -48011,7 +48011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>63</v>
       </c>
@@ -48052,7 +48052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>63</v>
       </c>
@@ -48093,7 +48093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>63</v>
       </c>
@@ -48134,7 +48134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>63</v>
       </c>
@@ -48175,7 +48175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>63</v>
       </c>
@@ -48216,7 +48216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>63</v>
       </c>
@@ -48257,7 +48257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>63</v>
       </c>
@@ -48298,7 +48298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>63</v>
       </c>
@@ -48339,7 +48339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>63</v>
       </c>
@@ -48380,7 +48380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>63</v>
       </c>
@@ -48421,7 +48421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>63</v>
       </c>
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>63</v>
       </c>
@@ -48503,7 +48503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>63</v>
       </c>
@@ -48544,7 +48544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>63</v>
       </c>
@@ -48585,7 +48585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>63</v>
       </c>
@@ -48626,7 +48626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A687">
         <v>63</v>
       </c>
@@ -48667,7 +48667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A688">
         <v>63</v>
       </c>
@@ -48708,7 +48708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A689">
         <v>63</v>
       </c>
@@ -48749,7 +48749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A690">
         <v>63</v>
       </c>
@@ -48790,7 +48790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A691">
         <v>63</v>
       </c>
@@ -48831,7 +48831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A692">
         <v>63</v>
       </c>
@@ -48872,7 +48872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A693">
         <v>64</v>
       </c>
@@ -48913,7 +48913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A694">
         <v>64</v>
       </c>
@@ -48954,7 +48954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A695">
         <v>64</v>
       </c>
@@ -48995,7 +48995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A696">
         <v>64</v>
       </c>
@@ -49036,7 +49036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A697">
         <v>64</v>
       </c>
@@ -49077,7 +49077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A698">
         <v>64</v>
       </c>
@@ -49118,7 +49118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A699">
         <v>64</v>
       </c>
@@ -49159,7 +49159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A700">
         <v>64</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A701">
         <v>64</v>
       </c>
@@ -49241,7 +49241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A702">
         <v>64</v>
       </c>
@@ -49282,7 +49282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A703">
         <v>64</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A704">
         <v>64</v>
       </c>
@@ -49364,7 +49364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A705">
         <v>64</v>
       </c>
@@ -49405,7 +49405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A706">
         <v>64</v>
       </c>
@@ -49446,7 +49446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A707">
         <v>64</v>
       </c>
@@ -49487,7 +49487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A708">
         <v>64</v>
       </c>
@@ -49528,7 +49528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A709">
         <v>64</v>
       </c>
@@ -49569,7 +49569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A710">
         <v>64</v>
       </c>
@@ -49610,7 +49610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A711">
         <v>64</v>
       </c>
@@ -49651,7 +49651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A712">
         <v>64</v>
       </c>
@@ -49692,7 +49692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A713">
         <v>64</v>
       </c>
@@ -49733,7 +49733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A714">
         <v>64</v>
       </c>
@@ -49774,7 +49774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A715">
         <v>64</v>
       </c>
@@ -49815,7 +49815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A716">
         <v>64</v>
       </c>
@@ -49856,7 +49856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A717">
         <v>64</v>
       </c>
@@ -49897,7 +49897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A718">
         <v>64</v>
       </c>
@@ -49938,7 +49938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A719">
         <v>64</v>
       </c>
@@ -49979,7 +49979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A720">
         <v>64</v>
       </c>
@@ -50020,7 +50020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A721">
         <v>64</v>
       </c>
@@ -50061,7 +50061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A722">
         <v>64</v>
       </c>
